--- a/Yeni Veri/total_sonuc.xlsx
+++ b/Yeni Veri/total_sonuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bkkas/Documents/TEZ/Tez/Yeni Veri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B20D5D-4BE2-A144-8E4F-F71AFDE2D723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649ECBB3-01A9-464E-BB23-777C9962263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q-1" sheetId="1" r:id="rId1"/>
@@ -2002,10 +2002,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2311,7 +2317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
@@ -3782,52 +3788,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="21.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.83203125" customWidth="1"/>
+    <col min="2" max="2" width="69.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20190808014</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C2">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>20190808021</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C3">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>20190808035</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C4">
@@ -3842,418 +3851,418 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>20200808008</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C6">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20200808015</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20200808020</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C8">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20200808026</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C9">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20200808033</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20200808038</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C11">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20200808045</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C12">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>20200808062</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>20200808063</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>20200808072</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C15">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>20200808504</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>20200808505</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>20200808805</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C18">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>20210808005</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C19">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>20210808006</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20210808012</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C21">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20210808014</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C22">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20210808016</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C23">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>20210808017</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C24">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>20210808018</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>20210808021</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C26">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>20210808022</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>20210808025</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C28">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>20210808033</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C29">
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>20210808035</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C30">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>20210808038</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C31">
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>20210808042</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C32">
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>20210808044</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C33">
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>20210808048</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C34">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>20210808056</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C35">
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>20210808061</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C36">
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>20210808062</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C37">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>20210808065</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C38">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>20210808066</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C39">
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>20210808076</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>20210808604</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C41">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>20210808605</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C42">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>20210808608</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C43">
@@ -4268,154 +4277,154 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>20210808612</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C45">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>20210808614</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C46">
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>20210808615</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>20210808616</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C48">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>20220808001</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C49">
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>20220808002</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>20220808005</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>20220808006</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C52">
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>20220808007</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C53">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>20220808010</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C54">
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>20220808013</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C55">
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>20220808014</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C56">
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>20220808016</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C57">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>20220808018</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C58">
@@ -4430,88 +4439,88 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>20220808022</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C60">
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>20220808023</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C61">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>20220808024</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C62">
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>20220808025</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C63">
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>20220808026</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>20220808028</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C65">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>20220808029</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C66">
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>20220808032</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C67">
@@ -4526,374 +4535,374 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>20220808034</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C69">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>20220808035</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C70">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>20220808037</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C71">
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>20220808038</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C72">
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>20220808039</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C73">
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>20220808041</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C74">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>20220808043</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C75">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>20220808044</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C76">
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>20220808045</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C77">
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>20220808046</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C78">
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>20220808047</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C79">
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>20220808048</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C80">
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>20220808050</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>20220808051</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C82">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>20220808052</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C83">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>20220808053</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C84">
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>20220808055</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C85">
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>20220808056</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>20220808057</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C87">
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>20220808058</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C88">
         <v>18</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>20220808059</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C89">
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>20220808060</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C90">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>20220808062</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C91">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>20220808063</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>20220808066</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C93">
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>20220808067</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C94">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>20220808069</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C95">
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>20220808071</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C96">
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>20220808072</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C97">
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>20220808073</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C98">
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>20220808074</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C99">
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>20220808076</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C100">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>20220808077</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C101">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>20220808504</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C102">
@@ -4908,231 +4917,231 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>20220808604</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C104">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>20220808606</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C105">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>20220808607</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C106">
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>20220808608</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C107">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>20220808610</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C108">
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>20220808616</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C109">
         <v>7</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>20220808617</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C110">
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>20220808703</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C111">
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>20220808705</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C112">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>20220808706</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>20230808004</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C114">
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>20230808010</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C115">
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>20230808020</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>20230808049</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C117">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>20230808055</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C118">
         <v>15</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>20230808061</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C119">
         <v>7</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>20230808062</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>239</v>
       </c>
       <c r="C120">
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>20230808066</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C121">
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" ht="80" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>20230808070</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>241</v>
       </c>
       <c r="C122">
         <v>7</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>20230808075</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C123">
         <v>19</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>20230808077</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C124">
@@ -5147,99 +5156,99 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>20230808608</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C126">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>20230808609</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>20230808611</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C128">
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>20230808614</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C129">
         <v>18</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>20230808615</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C130">
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>20230808617</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>248</v>
       </c>
       <c r="C131">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>20230808618</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C132">
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>20230808621</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C133">
         <v>20</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>20230808623</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C134">

--- a/Yeni Veri/total_sonuc.xlsx
+++ b/Yeni Veri/total_sonuc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bkkas/Documents/TEZ/Tez/Yeni Veri/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{649ECBB3-01A9-464E-BB23-777C9962263A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90157FE1-DAA8-3845-9B91-AD89F012EDE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17380" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Q-1" sheetId="1" r:id="rId1"/>
@@ -3788,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5264,9 +5264,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C134"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="73.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -9638,9 +9643,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="72" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
